--- a/Fase 3/Evidencia de Proyecto/Evidencias de Documentación/Planificación/ROADMAP-FINAL.xlsx
+++ b/Fase 3/Evidencia de Proyecto/Evidencias de Documentación/Planificación/ROADMAP-FINAL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matiassss\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05890887-51C9-46E9-B81B-F4697EED0C06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1838FF1-D1AE-43F6-9C43-06C6D56A4D33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2999,7 +2999,7 @@
       <xdr:row>50</xdr:row>
       <xdr:rowOff>187793</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1714500" cy="795880"/>
+    <xdr:ext cx="2118798" cy="795880"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="32" name="Shape 21">
@@ -3014,7 +3014,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="20242438" y="11271429"/>
-          <a:ext cx="1714500" cy="795880"/>
+          <a:ext cx="2118798" cy="795880"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst>
@@ -3088,12 +3088,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>160320</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>84858</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>41563</xdr:rowOff>
+      <xdr:rowOff>3463</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1391392" cy="455348"/>
+    <xdr:ext cx="1274619" cy="512620"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="33" name="Shape 7">
@@ -3107,8 +3107,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20568065" y="12676908"/>
-          <a:ext cx="1391392" cy="455348"/>
+          <a:off x="21306558" y="12424063"/>
+          <a:ext cx="1274619" cy="512620"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst>
@@ -3152,7 +3152,7 @@
               <a:cs typeface="Calibri"/>
               <a:sym typeface="Calibri"/>
             </a:rPr>
-            <a:t>Generacción</a:t>
+            <a:t>Recurso</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="es-CL" sz="1100" baseline="0">
@@ -3164,7 +3164,7 @@
               <a:cs typeface="Calibri"/>
               <a:sym typeface="Calibri"/>
             </a:rPr>
-            <a:t> de Manuales</a:t>
+            <a:t> Grafico Instructivo</a:t>
           </a:r>
           <a:endParaRPr sz="1100">
             <a:solidFill>
@@ -3259,6 +3259,100 @@
               <a:sym typeface="Calibri"/>
             </a:rPr>
             <a:t> de reportes</a:t>
+          </a:r>
+          <a:endParaRPr sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>142008</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>27708</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1274619" cy="512620"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Shape 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0062FE2-6D66-4F20-9A09-B0C1A49460C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21363708" y="13019808"/>
+          <a:ext cx="1274619" cy="512620"/>
+        </a:xfrm>
+        <a:prstGeom prst="homePlate">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="953734"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="45700" rIns="91425" bIns="45700" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="lt1"/>
+            </a:buClr>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Calibri"/>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-CL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Link</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-CL" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t> de Acceso</a:t>
           </a:r>
           <a:endParaRPr sz="1100">
             <a:solidFill>
@@ -3477,8 +3571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36:W44"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="Z53" sqref="Z53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
